--- a/Invoice/Validate Invoice Totals/Main.rvl.xlsx
+++ b/Invoice/Validate Invoice Totals/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="119">
   <si>
     <t>Flow</t>
   </si>
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>Invoice_TotalAmount</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\InvoiceData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">****Test validates the invoice totals against the expected values in the InvoiceData spreadsheet. </t>
+  </si>
+  <si>
+    <t>*****Variable g_testname must be defined prior to beginning test.</t>
+  </si>
+  <si>
+    <t>g_testname:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_testname: </t>
+  </si>
+  <si>
+    <t>Loop through spreadsheet to find row with matching Test Name.</t>
+  </si>
+  <si>
+    <t>Loop through Data spreadsheet to find row with matching Test Name.</t>
+  </si>
+  <si>
+    <t>Loop through Objects spreadsheet to find row with matching Test Name.</t>
   </si>
 </sst>
 </file>
@@ -367,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="431">
+  <borders count="438">
     <border>
       <left/>
       <right/>
@@ -805,11 +829,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="431">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1241,6 +1272,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="431" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="434" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="435" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="436" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H119"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -1396,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
         <v>42</v>
@@ -1505,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1595,1047 +1633,1170 @@
       <c r="A27" s="331"/>
     </row>
     <row r="28">
-      <c r="A28" s="330" t="s">
-        <v>8</v>
-      </c>
+      <c r="A28" s="431"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="329"/>
+      <c r="A29" s="433"/>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="434"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="432"/>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="435"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="330" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="329"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="378"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="377" t="s">
+    <row r="35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="378"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="376" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="375" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="374" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="373"/>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="372"/>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="38">
-      <c r="A38" s="371"/>
+      <c r="A38" s="436"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="376" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="375" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="374" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="373"/>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="372"/>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="371"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="370"/>
-      <c r="B39" t="s">
+    <row r="45">
+      <c r="A45" s="370"/>
+      <c r="B45" t="s">
         <v>28</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E45" t="s">
         <v>75</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F45" t="s">
         <v>26</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="369" t="s">
+    <row r="46">
+      <c r="A46" s="369" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="368" t="s">
+    <row r="47">
+      <c r="A47" s="368" t="s">
         <v>52</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="367"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="366" t="s">
+    <row r="48">
+      <c r="A48" s="367"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="365" t="s">
+    <row r="50">
+      <c r="A50" s="437"/>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="365" t="s">
         <v>66</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="364" t="s">
+    <row r="52">
+      <c r="A52" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="363" t="s">
+    <row r="53">
+      <c r="A53" s="363" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
         <v>69</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F53" t="s">
         <v>54</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="362"/>
-      <c r="B47" t="s">
+    <row r="54">
+      <c r="A54" s="362"/>
+      <c r="B54" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="361"/>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" t="s">
+    <row r="55">
+      <c r="A55" s="361"/>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
         <v>73</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F55" t="s">
         <v>26</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="360"/>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="359"/>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="358" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="357" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="396"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="395" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="56">
-      <c r="A56" s="394"/>
+      <c r="A56" s="360"/>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="393"/>
+      <c r="A57" s="359"/>
       <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
       </c>
       <c r="G57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="358" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="357" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="396"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="395" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="394"/>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="393"/>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="392"/>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="391"/>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="390"/>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="389"/>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="388"/>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="387"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="386" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="65">
-      <c r="A65" s="385"/>
+      <c r="A65" s="392"/>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="384"/>
+      <c r="A66" s="391"/>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="383"/>
+      <c r="A67" s="390"/>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="389"/>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
         <v>13</v>
       </c>
-      <c r="G67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="382" t="s">
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="388"/>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="387"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="381"/>
-      <c r="B69" t="s">
+    <row r="72">
+      <c r="A72" s="385"/>
+      <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D72" t="s">
         <v>88</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E72" t="s">
         <v>89</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F72" t="s">
         <v>13</v>
       </c>
-      <c r="G69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="380"/>
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="G72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="384"/>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
         <v>43</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="379"/>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="32"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="422"/>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="383"/>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="382" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="381"/>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="380"/>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="379"/>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="32"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="422"/>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="421"/>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
+    <row r="81">
+      <c r="A81" s="421"/>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F81" t="s">
         <v>26</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G81" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="420"/>
-      <c r="B75" t="s">
+    <row r="82">
+      <c r="A82" s="420"/>
+      <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C82" t="s">
         <v>10</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D82" t="s">
         <v>11</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E82" t="s">
         <v>12</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F82" t="s">
         <v>13</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="419"/>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
+    <row r="83">
+      <c r="A83" s="419"/>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
         <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="423"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="417" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="416"/>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" t="s">
-        <v>96</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="415"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="414" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="413" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="412"/>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" t="s">
-        <v>99</v>
       </c>
       <c r="F83" t="s">
         <v>26</v>
       </c>
       <c r="G83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="423"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="417" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="411"/>
-      <c r="B84" t="s">
-        <v>28</v>
-      </c>
-      <c r="E84" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" t="s">
         <v>26</v>
       </c>
-      <c r="G84" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="410"/>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="409"/>
+      <c r="A86" s="416"/>
       <c r="B86" t="s">
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
         <v>26</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="408"/>
+      <c r="A87" s="415"/>
     </row>
     <row r="88">
-      <c r="A88" s="407" t="s">
+      <c r="A88" s="414" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="406"/>
+      <c r="A89" s="413" t="s">
+        <v>8</v>
+      </c>
       <c r="B89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="412"/>
+      <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
         <v>98</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>99</v>
-      </c>
-      <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="405"/>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" t="s">
-        <v>103</v>
       </c>
       <c r="F90" t="s">
         <v>26</v>
       </c>
       <c r="G90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="411"/>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="404"/>
-      <c r="B91" t="s">
+    <row r="92">
+      <c r="A92" s="410"/>
+      <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>10</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="403"/>
-      <c r="B92" t="s">
-        <v>19</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
       </c>
       <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="409"/>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
         <v>26</v>
       </c>
-      <c r="G92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="402"/>
+      <c r="G93" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="401"/>
+      <c r="A94" s="408"/>
     </row>
     <row r="95">
-      <c r="A95" s="400"/>
+      <c r="A95" s="407" t="s">
+        <v>8</v>
+      </c>
       <c r="B95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="406"/>
+      <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" t="s">
-        <v>105</v>
-      </c>
-      <c r="E95" t="s">
-        <v>106</v>
-      </c>
-      <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="399"/>
-      <c r="B96" t="s">
-        <v>19</v>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F96" t="s">
         <v>26</v>
       </c>
       <c r="G96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="405"/>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="404"/>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="403"/>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="402"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="401"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="400"/>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="399"/>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>107</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="398"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="397" t="s">
+    <row r="104">
+      <c r="A104" s="398"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="397" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="33"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="40"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="57"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="64"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="65"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="72"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="73"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="80"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="81"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="83"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="87"/>
-      <c r="H103" s="88"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="89"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="95"/>
-      <c r="H104" s="96"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="97"/>
-      <c r="B105" s="98"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="102"/>
-      <c r="G105" s="103"/>
-      <c r="H105" s="104"/>
-    </row>
     <row r="106">
-      <c r="A106" s="105"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="109"/>
-      <c r="F106" s="110"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="112"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="40"/>
     </row>
     <row r="107">
-      <c r="A107" s="113"/>
-      <c r="B107" s="114"/>
-      <c r="C107" s="115"/>
-      <c r="D107" s="116"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="118"/>
-      <c r="G107" s="119"/>
-      <c r="H107" s="120"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
     </row>
     <row r="108">
-      <c r="A108" s="121"/>
-      <c r="B108" s="122"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="124"/>
-      <c r="E108" s="125"/>
-      <c r="F108" s="126"/>
-      <c r="G108" s="127"/>
-      <c r="H108" s="128"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="72"/>
     </row>
     <row r="109">
-      <c r="A109" s="129"/>
-      <c r="B109" s="130"/>
-      <c r="C109" s="131"/>
-      <c r="D109" s="132"/>
-      <c r="E109" s="133"/>
-      <c r="F109" s="134"/>
-      <c r="G109" s="135"/>
-      <c r="H109" s="136"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="80"/>
     </row>
     <row r="110">
-      <c r="A110" s="137"/>
-      <c r="B110" s="138"/>
-      <c r="C110" s="139"/>
-      <c r="D110" s="140"/>
-      <c r="E110" s="141"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="143"/>
-      <c r="H110" s="144"/>
+      <c r="A110" s="81"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="87"/>
+      <c r="H110" s="88"/>
     </row>
     <row r="111">
-      <c r="A111" s="145"/>
-      <c r="B111" s="146"/>
-      <c r="C111" s="147"/>
-      <c r="D111" s="148"/>
-      <c r="E111" s="149"/>
-      <c r="F111" s="150"/>
-      <c r="G111" s="151"/>
-      <c r="H111" s="152"/>
+      <c r="A111" s="89"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="91"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="95"/>
+      <c r="H111" s="96"/>
     </row>
     <row r="112">
-      <c r="A112" s="153"/>
-      <c r="B112" s="154"/>
-      <c r="C112" s="155"/>
-      <c r="D112" s="156"/>
-      <c r="E112" s="157"/>
-      <c r="F112" s="158"/>
-      <c r="G112" s="159"/>
-      <c r="H112" s="160"/>
+      <c r="A112" s="97"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="100"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="102"/>
+      <c r="G112" s="103"/>
+      <c r="H112" s="104"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="105"/>
+      <c r="B113" s="106"/>
+      <c r="C113" s="107"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="110"/>
+      <c r="G113" s="111"/>
+      <c r="H113" s="112"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="113"/>
+      <c r="B114" s="114"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="117"/>
+      <c r="F114" s="118"/>
+      <c r="G114" s="119"/>
+      <c r="H114" s="120"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="121"/>
+      <c r="B115" s="122"/>
+      <c r="C115" s="123"/>
+      <c r="D115" s="124"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="127"/>
+      <c r="H115" s="128"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="129"/>
+      <c r="B116" s="130"/>
+      <c r="C116" s="131"/>
+      <c r="D116" s="132"/>
+      <c r="E116" s="133"/>
+      <c r="F116" s="134"/>
+      <c r="G116" s="135"/>
+      <c r="H116" s="136"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="137"/>
+      <c r="B117" s="138"/>
+      <c r="C117" s="139"/>
+      <c r="D117" s="140"/>
+      <c r="E117" s="141"/>
+      <c r="F117" s="142"/>
+      <c r="G117" s="143"/>
+      <c r="H117" s="144"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="145"/>
+      <c r="B118" s="146"/>
+      <c r="C118" s="147"/>
+      <c r="D118" s="148"/>
+      <c r="E118" s="149"/>
+      <c r="F118" s="150"/>
+      <c r="G118" s="151"/>
+      <c r="H118" s="152"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="153"/>
+      <c r="B119" s="154"/>
+      <c r="C119" s="155"/>
+      <c r="D119" s="156"/>
+      <c r="E119" s="157"/>
+      <c r="F119" s="158"/>
+      <c r="G119" s="159"/>
+      <c r="H119" s="160"/>
     </row>
   </sheetData>
 </worksheet>
